--- a/Parque de Transformadores LDS (01.09.25)_FINAL.xlsx
+++ b/Parque de Transformadores LDS (01.09.25)_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luzdelsurlds-my.sharepoint.com/personal/roquispec_luzdelsur_com_pe/Documents/Documentos/Estudios de Ingreso/ProyectoR&amp;D/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{998C58F0-E850-44D1-9B15-6091CB7859B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E56C9F6-7129-4A4E-A485-43604520D13C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{998C58F0-E850-44D1-9B15-6091CB7859B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB41DDA-F086-4CEF-9640-ADC224D18E9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformadores" sheetId="19" r:id="rId1"/>
@@ -30,15 +30,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -3473,8 +3464,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AD214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AJ74" sqref="AJ74"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10920,7 +10911,7 @@
       <c r="C132" s="22">
         <v>58</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="100" t="s">
         <v>23</v>
       </c>
       <c r="E132" s="14">
@@ -10979,7 +10970,7 @@
       <c r="C133" s="22">
         <v>59</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="100" t="s">
         <v>23</v>
       </c>
       <c r="E133" s="14">
@@ -14073,7 +14064,7 @@
       <c r="C207" s="22">
         <v>5</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D207" s="100" t="s">
         <v>555</v>
       </c>
       <c r="E207" s="22">
@@ -14129,7 +14120,7 @@
       <c r="C208" s="22">
         <v>6</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D208" s="100" t="s">
         <v>556</v>
       </c>
       <c r="E208" s="14">
@@ -14185,7 +14176,7 @@
       <c r="C209" s="22">
         <v>9</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D209" s="100" t="s">
         <v>553</v>
       </c>
       <c r="E209" s="14">
@@ -14430,7 +14421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341D11BE-5E99-49B0-A3B4-AFBD9596AA03}">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/Parque de Transformadores LDS (01.09.25)_FINAL.xlsx
+++ b/Parque de Transformadores LDS (01.09.25)_FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roquispec\OneDrive - LUZ DEL SUR S.A.A\Documentos\Estudios de Ingreso\ProyectoRyD_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{998C58F0-E850-44D1-9B15-6091CB7859B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BB41DDA-F086-4CEF-9640-ADC224D18E9F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{998C58F0-E850-44D1-9B15-6091CB7859B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{900DB8B8-263E-498A-9228-6F8A560CB646}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformadores" sheetId="19" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="620">
   <si>
     <t>Santa Rosa Nueva</t>
   </si>
@@ -2094,9 +2094,6 @@
 Fabricación</t>
   </si>
   <si>
-    <t>Puente (Ex A-TRF3)</t>
-  </si>
-  <si>
     <t>INSTALAR 2025</t>
   </si>
   <si>
@@ -2161,6 +2158,18 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Puente (Ex-TRF3)</t>
+  </si>
+  <si>
+    <t>Puente (Ex-TRF2)</t>
+  </si>
+  <si>
+    <t>Monterrico (Ex- TRF2)</t>
+  </si>
+  <si>
+    <t>Pachacamac (Ex-TRF2)</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2734,13 +2743,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3173,13 +3193,1031 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3196,6 +4234,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B1F93B1-D9E9-4EF3-8F40-FC8A7F7958BA}" name="Tabla1" displayName="Tabla1" ref="C5:AA56" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="26" headerRowCellStyle="Normal 2">
+  <autoFilter ref="C5:AA56" xr:uid="{9AD9E9A9-4804-4312-AF93-FF620D3498FB}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{D41032D8-7F04-4873-BB5A-53580F4B1C4C}" name="Ítem" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8A055615-A674-49E3-8033-B831F0D9E22E}" name="Subestación" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{D3D36160-68DE-4D55-85E8-8950679C3B9F}" name="Pot.Ins. _x000a_(MVA)" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{704073FE-5367-477C-B103-CBAA2E837C3C}" name="#Cir" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{2ED271BF-6FC7-4375-B1A1-69943C33977C}" name="Fase" dataDxfId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{A0CFB9AF-1AA1-4302-8D80-809AB068008A}" name="Potencia Placa (MVA)" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{AEEAB801-6BC9-46CA-9B42-D3867AE4E04A}" name="Relación de Transformación (kV)" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{138346A2-10E5-44AF-805F-EC88B8D6AFF5}" name="Marca" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{5BC30C85-42CB-480D-A1F6-460420E020F5}" name="Año Fab." dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{CA812A4D-3B06-42D6-96DF-F3B60DD49518}" name="Kardex _x000a_(R-S-T)" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{7A98E1E6-67C6-4EC8-B18F-470EA0E083D0}" name="Serie_x000a_ (R-S-T)" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{476BF158-8468-4C9D-B5AB-F0CAC60E26B5}" name="Remuneración" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{0EAB7141-A4B5-460B-86C8-5BFFCB1E6877}" name="Tensión" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{2D53635D-F4D1-46A5-A5BB-041D23254B9D}" name="Potencia" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{520470AE-A6D7-4174-B207-BC27BBFF4C02}" name="Ubicación original SCT/SST" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{ED6656B5-0A40-4200-9357-FCDC38773316}" name="SST (2006)" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{CE2C5EC3-5696-4EE7-9261-E2D09CC06934}" name="Tipo" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{320CC9E9-45DB-4191-B944-4D2BD9647DC5}" name="Condición" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="19" xr3:uid="{4C35941B-F272-4008-8025-3B314469C9A4}" name="Monitor DGA" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{B55E7E6E-C65F-4785-8483-378CD7DAD60F}" name="Condición Monitor DGA" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{916CFF4C-C1A4-4C6E-A446-684959195369}" name="Equipo de secado" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{5138EA3A-C309-4CDC-97AB-0EF783C64ED7}" name="Comentarios" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{C871B62D-6322-4520-8F72-A8D4BE64B17C}" name="Vcc%_x000a_Sup/Cent/Inf" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="24" xr3:uid="{716D0B69-11AC-403E-AF1F-79E4D31D39A7}" name="Icc_x000a_AT/BT/Terc" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="25" xr3:uid="{615E4BF8-B19C-48BA-9E18-EDB5BC41182D}" name="Icc" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3464,8 +4536,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AD214"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3476,7 +4548,7 @@
     <col min="4" max="4" width="23" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" style="28" customWidth="1"/>
     <col min="6" max="7" width="12.33203125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="25" style="28" customWidth="1"/>
     <col min="9" max="9" width="37.83203125" style="28" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" style="28" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" style="28" hidden="1" customWidth="1"/>
@@ -3581,7 +4653,7 @@
     </row>
     <row r="5" spans="2:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="166" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="40" t="s">
@@ -3639,7 +4711,7 @@
         <v>341</v>
       </c>
       <c r="V5" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W5" s="42" t="s">
         <v>353</v>
@@ -3659,7 +4731,7 @@
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="22">
+      <c r="C6" s="167">
         <v>1</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -3716,7 +4788,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="22">
+      <c r="C7" s="167">
         <v>2</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -3773,7 +4845,7 @@
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="22">
+      <c r="C8" s="167">
         <v>3</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -3830,7 +4902,7 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="22">
+      <c r="C9" s="167">
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3887,7 +4959,7 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="22">
+      <c r="C10" s="167">
         <v>5</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -3946,7 +5018,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="22">
+      <c r="C11" s="167">
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -4003,7 +5075,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="22">
+      <c r="C12" s="167">
         <v>7</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -4059,7 +5131,7 @@
         <v>351</v>
       </c>
       <c r="V12" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W12" s="45"/>
       <c r="X12" s="9"/>
@@ -4070,7 +5142,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="22">
+      <c r="C13" s="167">
         <v>8</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -4126,7 +5198,7 @@
         <v>351</v>
       </c>
       <c r="V13" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W13" s="45"/>
       <c r="X13" s="9"/>
@@ -4137,7 +5209,7 @@
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="22">
+      <c r="C14" s="167">
         <v>9</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -4193,7 +5265,7 @@
         <v>351</v>
       </c>
       <c r="V14" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W14" s="45"/>
       <c r="X14" s="9"/>
@@ -4204,7 +5276,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="22">
+      <c r="C15" s="167">
         <v>10</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -4256,7 +5328,7 @@
         <v>411</v>
       </c>
       <c r="V15" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W15" s="45"/>
       <c r="X15" s="9"/>
@@ -4267,7 +5339,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="22">
+      <c r="C16" s="167">
         <v>11</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4319,7 +5391,7 @@
         <v>411</v>
       </c>
       <c r="V16" s="161" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="W16" s="45"/>
       <c r="X16" s="9"/>
@@ -4330,7 +5402,7 @@
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="22">
+      <c r="C17" s="167">
         <v>12</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -4382,7 +5454,7 @@
         <v>411</v>
       </c>
       <c r="V17" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W17" s="45"/>
       <c r="X17" s="9"/>
@@ -4393,7 +5465,7 @@
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="22">
+      <c r="C18" s="167">
         <v>13</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -4458,7 +5530,7 @@
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="22">
+      <c r="C19" s="167">
         <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4523,7 +5595,7 @@
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="22">
+      <c r="C20" s="167">
         <v>15</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -4588,7 +5660,7 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="22">
+      <c r="C21" s="167">
         <v>16</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -4644,7 +5716,7 @@
         <v>351</v>
       </c>
       <c r="V21" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W21" s="45"/>
       <c r="X21" s="9"/>
@@ -4653,7 +5725,7 @@
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="22">
+      <c r="C22" s="167">
         <v>17</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -4709,7 +5781,7 @@
         <v>351</v>
       </c>
       <c r="V22" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W22" s="45"/>
       <c r="X22" s="9"/>
@@ -4718,7 +5790,7 @@
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="22">
+      <c r="C23" s="167">
         <v>18</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4774,7 +5846,7 @@
         <v>351</v>
       </c>
       <c r="V23" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W23" s="45"/>
       <c r="X23" s="9"/>
@@ -4783,7 +5855,7 @@
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="22">
+      <c r="C24" s="167">
         <v>19</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -4831,10 +5903,10 @@
       <c r="R24" s="88"/>
       <c r="S24" s="88"/>
       <c r="T24" s="163" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U24" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V24" s="162"/>
       <c r="W24" s="45"/>
@@ -4846,7 +5918,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="22">
+      <c r="C25" s="167">
         <v>20</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -4894,10 +5966,10 @@
       <c r="R25" s="88"/>
       <c r="S25" s="88"/>
       <c r="T25" s="163" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U25" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V25" s="162"/>
       <c r="W25" s="45"/>
@@ -4909,7 +5981,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="22">
+      <c r="C26" s="167">
         <v>21</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -4958,7 +6030,7 @@
       <c r="S26" s="88"/>
       <c r="T26" s="25"/>
       <c r="U26" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V26" s="162"/>
       <c r="W26" s="45"/>
@@ -4970,7 +6042,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="22">
+      <c r="C27" s="167">
         <v>22</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -5029,7 +6101,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="22">
+      <c r="C28" s="167">
         <v>23</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -5086,7 +6158,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="22">
+      <c r="C29" s="167">
         <v>24</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5143,7 +6215,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="22">
+      <c r="C30" s="167">
         <v>25</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -5202,7 +6274,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="22">
+      <c r="C31" s="167">
         <v>26</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -5259,7 +6331,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="22">
+      <c r="C32" s="167">
         <v>27</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -5316,7 +6388,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
-      <c r="C33" s="22">
+      <c r="C33" s="167">
         <v>28</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -5368,7 +6440,7 @@
         <v>350</v>
       </c>
       <c r="V33" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W33" s="45"/>
       <c r="X33" s="9"/>
@@ -5377,7 +6449,7 @@
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="C34" s="22">
+      <c r="C34" s="167">
         <v>29</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -5429,7 +6501,7 @@
         <v>350</v>
       </c>
       <c r="V34" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W34" s="45"/>
       <c r="X34" s="9"/>
@@ -5438,7 +6510,7 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
-      <c r="C35" s="22">
+      <c r="C35" s="167">
         <v>30</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -5490,7 +6562,7 @@
         <v>350</v>
       </c>
       <c r="V35" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W35" s="45"/>
       <c r="X35" s="9"/>
@@ -5499,7 +6571,7 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="22">
+      <c r="C36" s="167">
         <v>31</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -5567,7 +6639,7 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
-      <c r="C37" s="22">
+      <c r="C37" s="167">
         <v>32</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -5628,7 +6700,7 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
-      <c r="C38" s="22">
+      <c r="C38" s="167">
         <v>33</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -5693,7 +6765,7 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
-      <c r="C39" s="22">
+      <c r="C39" s="167">
         <v>34</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -5758,7 +6830,7 @@
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
-      <c r="C40" s="22">
+      <c r="C40" s="167">
         <v>35</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -5823,7 +6895,7 @@
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
-      <c r="C41" s="22">
+      <c r="C41" s="167">
         <v>36</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -5888,7 +6960,7 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
-      <c r="C42" s="22">
+      <c r="C42" s="167">
         <v>37</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -5949,7 +7021,7 @@
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
-      <c r="C43" s="22">
+      <c r="C43" s="167">
         <v>38</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -6010,7 +7082,7 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
-      <c r="C44" s="22">
+      <c r="C44" s="167">
         <v>39</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -6071,7 +7143,7 @@
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
-      <c r="C45" s="22">
+      <c r="C45" s="167">
         <v>40</v>
       </c>
       <c r="D45" s="14" t="s">
@@ -6131,7 +7203,7 @@
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
-      <c r="C46" s="22">
+      <c r="C46" s="167">
         <v>41</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -6191,7 +7263,7 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
-      <c r="C47" s="22">
+      <c r="C47" s="167">
         <v>42</v>
       </c>
       <c r="D47" s="14" t="s">
@@ -6251,7 +7323,7 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
-      <c r="C48" s="22">
+      <c r="C48" s="167">
         <v>43</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -6312,7 +7384,7 @@
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
-      <c r="C49" s="22">
+      <c r="C49" s="167">
         <v>44</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -6373,7 +7445,7 @@
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
-      <c r="C50" s="22">
+      <c r="C50" s="167">
         <v>45</v>
       </c>
       <c r="D50" s="14" t="s">
@@ -6434,7 +7506,7 @@
     </row>
     <row r="51" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
-      <c r="C51" s="22">
+      <c r="C51" s="167">
         <v>46</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -6495,7 +7567,7 @@
     </row>
     <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
-      <c r="C52" s="22">
+      <c r="C52" s="167">
         <v>47</v>
       </c>
       <c r="D52" s="14" t="s">
@@ -6556,7 +7628,7 @@
     </row>
     <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
-      <c r="C53" s="22">
+      <c r="C53" s="167">
         <v>48</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -6619,7 +7691,7 @@
     </row>
     <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
-      <c r="C54" s="22">
+      <c r="C54" s="167">
         <v>49</v>
       </c>
       <c r="D54" s="14" t="s">
@@ -6684,7 +7756,7 @@
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
-      <c r="C55" s="22">
+      <c r="C55" s="167">
         <v>50</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -6749,7 +7821,7 @@
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
-      <c r="C56" s="22">
+      <c r="C56" s="167">
         <v>51</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -6951,7 +8023,7 @@
         <v>341</v>
       </c>
       <c r="V61" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W61" s="42" t="s">
         <v>354</v>
@@ -7129,10 +8201,10 @@
       <c r="S64" s="88"/>
       <c r="T64" s="22"/>
       <c r="U64" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="V64" s="163" t="s">
         <v>600</v>
-      </c>
-      <c r="V64" s="163" t="s">
-        <v>601</v>
       </c>
       <c r="W64" s="45"/>
       <c r="X64" s="9"/>
@@ -7186,10 +8258,10 @@
       <c r="S65" s="88"/>
       <c r="T65" s="22"/>
       <c r="U65" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="V65" s="163" t="s">
         <v>600</v>
-      </c>
-      <c r="V65" s="163" t="s">
-        <v>601</v>
       </c>
       <c r="W65" s="45"/>
       <c r="X65" s="9"/>
@@ -7246,7 +8318,7 @@
         <v>350</v>
       </c>
       <c r="V66" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W66" s="45"/>
       <c r="X66" s="9"/>
@@ -7303,7 +8375,7 @@
         <v>350</v>
       </c>
       <c r="V67" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W67" s="45"/>
       <c r="X67" s="9"/>
@@ -7360,7 +8432,7 @@
         <v>350</v>
       </c>
       <c r="V68" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W68" s="45"/>
       <c r="X68" s="9"/>
@@ -7467,7 +8539,7 @@
       <c r="F72" s="47"/>
       <c r="G72" s="47"/>
       <c r="H72" s="47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I72" s="34" t="s">
         <v>334</v>
@@ -7559,7 +8631,7 @@
         <v>341</v>
       </c>
       <c r="V74" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="W74" s="42" t="s">
         <v>354</v>
@@ -7568,13 +8640,13 @@
         <v>242</v>
       </c>
       <c r="Z74" s="165" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA74" s="165" t="s">
         <v>403</v>
       </c>
       <c r="AB74" s="165" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7630,7 +8702,7 @@
       <c r="W75" s="45"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z75" s="165">
         <v>60</v>
@@ -7699,7 +8771,7 @@
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="79" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Z76" s="165">
         <v>60</v>
@@ -7768,14 +8840,14 @@
         <v>350</v>
       </c>
       <c r="V77" s="161" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W77" s="70" t="s">
         <v>355</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z77" s="165">
         <v>60</v>
@@ -7838,7 +8910,7 @@
       </c>
       <c r="T78" s="55"/>
       <c r="U78" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V78" s="162"/>
       <c r="W78" s="70" t="s">
@@ -7846,7 +8918,7 @@
       </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z78" s="165"/>
       <c r="AA78" s="165"/>
@@ -7908,7 +8980,7 @@
         <v>411</v>
       </c>
       <c r="V79" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W79" s="45"/>
       <c r="X79" s="9"/>
@@ -8256,7 +9328,7 @@
       <c r="T85" s="55"/>
       <c r="U85" s="56"/>
       <c r="V85" s="161" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="W85" s="70" t="s">
         <v>355</v>
@@ -8605,7 +9677,7 @@
         <v>524</v>
       </c>
       <c r="T91" s="163" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U91" s="27"/>
       <c r="V91" s="27"/>
@@ -8660,7 +9732,7 @@
       <c r="R92" s="89"/>
       <c r="S92" s="89"/>
       <c r="T92" s="163" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U92" s="27"/>
       <c r="V92" s="27"/>
@@ -8950,7 +10022,7 @@
         <v>351</v>
       </c>
       <c r="V97" s="162" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="W97" s="45"/>
       <c r="X97" s="128" t="s">
@@ -9230,7 +10302,7 @@
       <c r="S102" s="89"/>
       <c r="T102" s="22"/>
       <c r="U102" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V102" s="162"/>
       <c r="W102" s="45"/>
@@ -9849,7 +10921,7 @@
         <v>411</v>
       </c>
       <c r="V113" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W113" s="70"/>
       <c r="X113" s="9"/>
@@ -10257,7 +11329,7 @@
         <v>350</v>
       </c>
       <c r="V120" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W120" s="45"/>
       <c r="X120" s="9"/>
@@ -10380,7 +11452,7 @@
         <v>351</v>
       </c>
       <c r="V122" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W122" s="45"/>
       <c r="X122" s="130" t="s">
@@ -10668,7 +11740,7 @@
       </c>
       <c r="T127" s="22"/>
       <c r="U127" s="162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V127" s="162"/>
       <c r="W127" s="70" t="s">
@@ -10958,7 +12030,7 @@
         <v>536</v>
       </c>
       <c r="T132" s="44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U132" s="27"/>
       <c r="V132" s="27"/>
@@ -11235,7 +12307,7 @@
       <c r="R137" s="89"/>
       <c r="S137" s="89"/>
       <c r="T137" s="44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="U137" s="27"/>
       <c r="V137" s="27"/>
@@ -11514,7 +12586,7 @@
         <v>411</v>
       </c>
       <c r="V142" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W142" s="45"/>
       <c r="X142" s="9"/>
@@ -11682,7 +12754,7 @@
         <v>351</v>
       </c>
       <c r="V145" s="163" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W145" s="45"/>
       <c r="X145" s="9"/>
@@ -13716,7 +14788,7 @@
       <c r="R196" s="93"/>
       <c r="S196" s="93"/>
       <c r="T196" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="U196" s="27" t="s">
         <v>351</v>
@@ -14065,7 +15137,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="100" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="E207" s="22">
         <v>40</v>
@@ -14121,7 +15193,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="100" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="E208" s="14">
         <v>25</v>
@@ -14177,7 +15249,7 @@
         <v>9</v>
       </c>
       <c r="D209" s="100" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="E209" s="14">
         <v>25</v>
@@ -14232,7 +15304,7 @@
         <v>48</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="E210" s="14">
         <v>50</v>
@@ -14414,6 +15486,9 @@
     <ignoredError sqref="L137:L140 H78 H123:H127 H132:H135 L164:L166 H80:H84 L82:L84 L87:L93 H87:H94 L143 L123:L125 H96:H98 L114:L118 H114:H118 H137:H143 H120 H103:H112 L96:L112 L128:L135" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14421,7 +15496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341D11BE-5E99-49B0-A3B4-AFBD9596AA03}">
   <dimension ref="B3:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -14434,10 +15509,10 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" t="s">
         <v>606</v>
-      </c>
-      <c r="C3" t="s">
-        <v>607</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -14454,10 +15529,10 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" t="s">
-        <v>609</v>
       </c>
       <c r="D4">
         <v>30000</v>
@@ -14471,10 +15546,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" t="s">
-        <v>611</v>
       </c>
       <c r="D5">
         <v>138000</v>
